--- a/productsale_s_import.xlsx
+++ b/productsale_s_import.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Практика\Task-Session1\task\Сессия 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE0621-0EBE-423A-88C5-F21BD4E17EC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36713AB6-9609-40E5-8914-852FD4618CE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D4384F5-748C-4BC1-8071-215D8F223EBD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{0D4384F5-748C-4BC1-8071-215D8F223EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист5" sheetId="5" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId5"/>
+    <sheet name="Лист7" sheetId="7" r:id="rId3"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId6"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="171">
   <si>
     <t>Дата реализации</t>
   </si>
@@ -365,6 +367,183 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>AgentID</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>SaleDate</t>
+  </si>
+  <si>
+    <t>ProductCount</t>
+  </si>
+  <si>
+    <t>СантехСеверЛенМашина</t>
+  </si>
+  <si>
+    <t>ЭлектроРемОрионЛизинг</t>
+  </si>
+  <si>
+    <t>CибБашкирТекстиль</t>
+  </si>
+  <si>
+    <t>ЮпитерТяжОрионЭкспедиция</t>
+  </si>
+  <si>
+    <t>КазаньТекстиль</t>
+  </si>
+  <si>
+    <t>Радио</t>
+  </si>
+  <si>
+    <t>Креп</t>
+  </si>
+  <si>
+    <t>ЖелДорДизайнМетизТраст</t>
+  </si>
+  <si>
+    <t>Асбоцемент</t>
+  </si>
+  <si>
+    <t>ТекстильУралАвтоОпт</t>
+  </si>
+  <si>
+    <t>ГорДор</t>
+  </si>
+  <si>
+    <t>КазЮпитерТомск</t>
+  </si>
+  <si>
+    <t>Компания КазАлмаз</t>
+  </si>
+  <si>
+    <t>БашкирЮпитерТомск</t>
+  </si>
+  <si>
+    <t>РемГаражЛифт</t>
+  </si>
+  <si>
+    <t>ПивГлав</t>
+  </si>
+  <si>
+    <t>Компания Гараж</t>
+  </si>
+  <si>
+    <t>Монтаж</t>
+  </si>
+  <si>
+    <t>ВодГараж</t>
+  </si>
+  <si>
+    <t>Компания Метал</t>
+  </si>
+  <si>
+    <t>Бум</t>
+  </si>
+  <si>
+    <t>МясРеч</t>
+  </si>
+  <si>
+    <t>МясТрансМоторЛизинг</t>
+  </si>
+  <si>
+    <t>Компания ТелекомХмельГаражПром</t>
+  </si>
+  <si>
+    <t>МетизТехАвтоПроф</t>
+  </si>
+  <si>
+    <t>РосАвтоМонтаж</t>
+  </si>
+  <si>
+    <t>Тех</t>
+  </si>
+  <si>
+    <t>ГлавITФлотПроф</t>
+  </si>
+  <si>
+    <t>ТелекомЮпитер</t>
+  </si>
+  <si>
+    <t>ВостокГлав</t>
+  </si>
+  <si>
+    <t>Компания КрепЦемент</t>
+  </si>
+  <si>
+    <t>Компания Хмель</t>
+  </si>
+  <si>
+    <t>Цемент</t>
+  </si>
+  <si>
+    <t>ЛенМобайлМикро</t>
+  </si>
+  <si>
+    <t>ВодТверьХозМашина</t>
+  </si>
+  <si>
+    <t>CибПивОмскСнаб</t>
+  </si>
+  <si>
+    <t>ЮпитерЛенГараж-М</t>
+  </si>
+  <si>
+    <t>Компания ФинансСервис</t>
+  </si>
+  <si>
+    <t>ФлотБух</t>
+  </si>
+  <si>
+    <t>КазХоз</t>
+  </si>
+  <si>
+    <t>Орион</t>
+  </si>
+  <si>
+    <t>Газ</t>
+  </si>
+  <si>
+    <t>Компания Монтаж</t>
+  </si>
+  <si>
+    <t>СтройГорНефть</t>
+  </si>
+  <si>
+    <t>ЦементАсбоцемент</t>
+  </si>
+  <si>
+    <t>ГазДизайнЖелДор</t>
+  </si>
+  <si>
+    <t>РемСантехОмскБанк</t>
+  </si>
+  <si>
+    <t>Мясо</t>
+  </si>
+  <si>
+    <t>Рем</t>
+  </si>
+  <si>
+    <t>ФинансТелеТверь</t>
+  </si>
+  <si>
+    <t>Строй</t>
+  </si>
+  <si>
+    <t>ЭлектроМоторТрансСнос</t>
+  </si>
+  <si>
+    <t>Компания СервисРадиоГор</t>
+  </si>
+  <si>
+    <t>Компания МясДизайнДизайн</t>
+  </si>
+  <si>
+    <t>БашкирФлотМотор-H</t>
   </si>
 </sst>
 </file>
@@ -738,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB36DD7-B0C8-4E85-BF46-BCF6E6A5A9CE}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,321 +1098,321 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3">
-        <v>43334</v>
+        <v>41127</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
-        <v>41127</v>
+        <v>40601</v>
       </c>
       <c r="D14" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3">
-        <v>40601</v>
+        <v>42378</v>
       </c>
       <c r="D15" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3">
-        <v>42378</v>
+        <v>43114</v>
       </c>
       <c r="D16" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
-        <v>43114</v>
+        <v>40379</v>
       </c>
       <c r="D17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3">
-        <v>40379</v>
+        <v>41237</v>
       </c>
       <c r="D18" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
-        <v>41237</v>
+        <v>43084</v>
       </c>
       <c r="D19" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3">
-        <v>43084</v>
+        <v>42179</v>
       </c>
       <c r="D20" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3">
-        <v>42179</v>
+        <v>43164</v>
       </c>
       <c r="D21" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3">
-        <v>43164</v>
+        <v>41441</v>
       </c>
       <c r="D22" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3">
-        <v>42720</v>
+        <v>42495</v>
       </c>
       <c r="D23" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3">
-        <v>43534</v>
+        <v>43221</v>
       </c>
       <c r="D24" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3">
-        <v>43033</v>
+        <v>40619</v>
       </c>
       <c r="D25" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3">
-        <v>41441</v>
+        <v>40306</v>
       </c>
       <c r="D26" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3">
-        <v>42495</v>
+        <v>41655</v>
       </c>
       <c r="D27" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3">
-        <v>43221</v>
+        <v>42901</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C29" s="3">
-        <v>40619</v>
+        <v>41302</v>
       </c>
       <c r="D29" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C30" s="3">
-        <v>40306</v>
+        <v>41895</v>
       </c>
       <c r="D30" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3">
-        <v>41655</v>
+        <v>40486</v>
       </c>
       <c r="D31" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C32" s="3">
-        <v>40434</v>
+        <v>43088</v>
       </c>
       <c r="D32" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C33" s="3">
-        <v>42901</v>
+        <v>41197</v>
       </c>
       <c r="D33" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3">
-        <v>40549</v>
+        <v>42252</v>
       </c>
       <c r="D34" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3">
-        <v>41302</v>
+        <v>41071</v>
       </c>
       <c r="D35" s="1">
         <v>12</v>
@@ -1241,181 +1420,181 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3">
-        <v>41895</v>
+        <v>43734</v>
       </c>
       <c r="D36" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37" s="3">
-        <v>40486</v>
+        <v>41271</v>
       </c>
       <c r="D37" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3">
-        <v>43088</v>
+        <v>40533</v>
       </c>
       <c r="D38" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3">
-        <v>41451</v>
+        <v>40859</v>
       </c>
       <c r="D39" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3">
-        <v>41197</v>
+        <v>43086</v>
       </c>
       <c r="D40" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
-        <v>42252</v>
+        <v>43275</v>
       </c>
       <c r="D41" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C42" s="3">
-        <v>41147</v>
+        <v>42936</v>
       </c>
       <c r="D42" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C43" s="3">
-        <v>41064</v>
+        <v>43473</v>
       </c>
       <c r="D43" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C44" s="3">
-        <v>41071</v>
+        <v>41741</v>
       </c>
       <c r="D44" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C45" s="3">
-        <v>43243</v>
+        <v>40848</v>
       </c>
       <c r="D45" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C46" s="3">
-        <v>41510</v>
+        <v>42047</v>
       </c>
       <c r="D46" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C47" s="3">
-        <v>40673</v>
+        <v>41122</v>
       </c>
       <c r="D47" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C48" s="3">
-        <v>41308</v>
+        <v>43334</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -1423,16 +1602,16 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C49" s="3">
-        <v>42910</v>
+        <v>42720</v>
       </c>
       <c r="D49" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,223 +1619,223 @@
         <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C50" s="3">
-        <v>40434</v>
+        <v>43534</v>
       </c>
       <c r="D50" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C51" s="3">
-        <v>42988</v>
+        <v>43033</v>
       </c>
       <c r="D51" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C52" s="3">
-        <v>42630</v>
+        <v>40434</v>
       </c>
       <c r="D52" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C53" s="3">
-        <v>41382</v>
+        <v>40549</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C54" s="3">
-        <v>40417</v>
+        <v>41451</v>
       </c>
       <c r="D54" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C55" s="3">
-        <v>42922</v>
+        <v>41147</v>
       </c>
       <c r="D55" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="3">
-        <v>41465</v>
+        <v>41064</v>
       </c>
       <c r="D56" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C57" s="3">
-        <v>43822</v>
+        <v>43243</v>
       </c>
       <c r="D57" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C58" s="3">
-        <v>43776</v>
+        <v>41510</v>
       </c>
       <c r="D58" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C59" s="3">
-        <v>40744</v>
+        <v>40673</v>
       </c>
       <c r="D59" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3">
-        <v>40579</v>
+        <v>41308</v>
       </c>
       <c r="D60" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C61" s="3">
-        <v>42477</v>
+        <v>42910</v>
       </c>
       <c r="D61" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3">
-        <v>43137</v>
+        <v>40434</v>
       </c>
       <c r="D62" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C63" s="3">
-        <v>40912</v>
+        <v>42988</v>
       </c>
       <c r="D63" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C64" s="3">
-        <v>43441</v>
+        <v>42630</v>
       </c>
       <c r="D64" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C65" s="3">
-        <v>43508</v>
+        <v>41382</v>
       </c>
       <c r="D65" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,503 +1843,503 @@
         <v>52</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C66" s="3">
-        <v>40492</v>
+        <v>40417</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C67" s="3">
-        <v>41356</v>
+        <v>42922</v>
       </c>
       <c r="D67" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C68" s="3">
-        <v>43734</v>
+        <v>41465</v>
       </c>
       <c r="D68" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C69" s="3">
-        <v>41510</v>
+        <v>43822</v>
       </c>
       <c r="D69" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C70" s="3">
-        <v>42295</v>
+        <v>43776</v>
       </c>
       <c r="D70" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C71" s="3">
-        <v>41271</v>
+        <v>40744</v>
       </c>
       <c r="D71" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C72" s="3">
-        <v>43686</v>
+        <v>40579</v>
       </c>
       <c r="D72" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C73" s="3">
-        <v>40260</v>
+        <v>42477</v>
       </c>
       <c r="D73" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C74" s="3">
-        <v>40533</v>
+        <v>43137</v>
       </c>
       <c r="D74" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C75" s="3">
-        <v>40230</v>
+        <v>40912</v>
       </c>
       <c r="D75" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C76" s="3">
-        <v>41722</v>
+        <v>43441</v>
       </c>
       <c r="D76" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C77" s="3">
-        <v>43208</v>
+        <v>43508</v>
       </c>
       <c r="D77" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C78" s="3">
-        <v>40859</v>
+        <v>40492</v>
       </c>
       <c r="D78" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C79" s="3">
-        <v>43086</v>
+        <v>41356</v>
       </c>
       <c r="D79" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C80" s="3">
-        <v>43275</v>
+        <v>41510</v>
       </c>
       <c r="D80" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C81" s="3">
-        <v>41830</v>
+        <v>42295</v>
       </c>
       <c r="D81" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C82" s="3">
-        <v>43529</v>
+        <v>43686</v>
       </c>
       <c r="D82" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C83" s="3">
-        <v>42936</v>
+        <v>40260</v>
       </c>
       <c r="D83" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C84" s="3">
-        <v>43473</v>
+        <v>40230</v>
       </c>
       <c r="D84" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C85" s="3">
-        <v>42860</v>
+        <v>41722</v>
       </c>
       <c r="D85" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="3">
+        <v>43208</v>
+      </c>
+      <c r="D86" s="1">
         <v>20</v>
-      </c>
-      <c r="C86" s="3">
-        <v>41286</v>
-      </c>
-      <c r="D86" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C87" s="3">
-        <v>41194</v>
+        <v>41830</v>
       </c>
       <c r="D87" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C88" s="3">
-        <v>41741</v>
+        <v>43529</v>
       </c>
       <c r="D88" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C89" s="3">
-        <v>43354</v>
+        <v>42860</v>
       </c>
       <c r="D89" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C90" s="3">
-        <v>43118</v>
+        <v>41286</v>
       </c>
       <c r="D90" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C91" s="3">
-        <v>42070</v>
+        <v>41194</v>
       </c>
       <c r="D91" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C92" s="3">
-        <v>41190</v>
+        <v>43354</v>
       </c>
       <c r="D92" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C93" s="3">
-        <v>41647</v>
+        <v>43118</v>
       </c>
       <c r="D93" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C94" s="3">
-        <v>40843</v>
+        <v>42070</v>
       </c>
       <c r="D94" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="3">
-        <v>41139</v>
+        <v>41190</v>
       </c>
       <c r="D95" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C96" s="3">
-        <v>40848</v>
+        <v>41647</v>
       </c>
       <c r="D96" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C97" s="3">
-        <v>40893</v>
+        <v>40843</v>
       </c>
       <c r="D97" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C98" s="3">
-        <v>41382</v>
+        <v>41139</v>
       </c>
       <c r="D98" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C99" s="3">
-        <v>40338</v>
+        <v>40893</v>
       </c>
       <c r="D99" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C100" s="3">
-        <v>42047</v>
+        <v>41382</v>
       </c>
       <c r="D100" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C101" s="3">
-        <v>41122</v>
+        <v>40338</v>
       </c>
       <c r="D101" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2171,662 +2350,3801 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5AE42E-C7EA-46C9-8AD6-DFFA78E25E5E}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1">
         <v>203</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D2" s="3">
+        <v>41815</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f>VLOOKUP(H2,A:B,2,0)</f>
+        <v>207</v>
+      </c>
+      <c r="L2">
+        <v>207</v>
+      </c>
+      <c r="M2">
+        <v>33</v>
+      </c>
+      <c r="N2" s="3">
+        <v>41815</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="1">
         <v>205</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D3" s="3">
+        <v>40547</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">VLOOKUP(H3,A:B,2,0)</f>
+        <v>275</v>
+      </c>
+      <c r="L3">
+        <v>275</v>
+      </c>
+      <c r="M3">
+        <v>42</v>
+      </c>
+      <c r="N3" s="3">
+        <v>40547</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="1">
         <v>206</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D4" s="3">
+        <v>42188</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="L4">
+        <v>276</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4" s="3">
+        <v>42188</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>207</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="D5" s="3">
+        <v>43622</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="L5">
+        <v>211</v>
+      </c>
+      <c r="M5">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3">
+        <v>43622</v>
+      </c>
+      <c r="O5" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="1">
         <v>208</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="D6" s="3">
+        <v>41726</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="L6">
+        <v>218</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>41726</v>
+      </c>
+      <c r="O6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1">
         <v>209</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D7" s="3">
+        <v>43509</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="L7">
+        <v>218</v>
+      </c>
+      <c r="M7">
+        <v>31</v>
+      </c>
+      <c r="N7" s="3">
+        <v>43509</v>
+      </c>
+      <c r="O7" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="1">
         <v>210</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="D8" s="3">
+        <v>41025</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="L8">
+        <v>274</v>
+      </c>
+      <c r="M8">
+        <v>38</v>
+      </c>
+      <c r="N8" s="3">
+        <v>41025</v>
+      </c>
+      <c r="O8" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
         <v>211</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D9" s="3">
+        <v>43487</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="L9">
+        <v>245</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>43487</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
         <v>212</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D10" s="3">
+        <v>43078</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="L10">
+        <v>259</v>
+      </c>
+      <c r="M10">
+        <v>32</v>
+      </c>
+      <c r="N10" s="3">
+        <v>43078</v>
+      </c>
+      <c r="O10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="1">
         <v>213</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="D11" s="3">
+        <v>41351</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="L11">
+        <v>222</v>
+      </c>
+      <c r="M11">
+        <v>35</v>
+      </c>
+      <c r="N11" s="3">
+        <v>41351</v>
+      </c>
+      <c r="O11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
         <v>214</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="D12" s="3">
+        <v>42680</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="L12">
+        <v>220</v>
+      </c>
+      <c r="M12">
+        <v>18</v>
+      </c>
+      <c r="N12" s="3">
+        <v>42680</v>
+      </c>
+      <c r="O12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="1">
         <v>215</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="D13" s="3">
+        <v>43334</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="L13">
+        <v>207</v>
+      </c>
+      <c r="M13">
+        <v>48</v>
+      </c>
+      <c r="N13" s="3">
+        <v>43334</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="1">
         <v>216</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="D14" s="3">
+        <v>41127</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="L14">
+        <v>262</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14" s="3">
+        <v>41127</v>
+      </c>
+      <c r="O14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="1">
         <v>217</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="D15" s="3">
+        <v>40601</v>
+      </c>
+      <c r="E15" s="1">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="L15">
+        <v>274</v>
+      </c>
+      <c r="M15">
+        <v>40</v>
+      </c>
+      <c r="N15" s="3">
+        <v>40601</v>
+      </c>
+      <c r="O15" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
         <v>218</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="D16" s="3">
+        <v>42378</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="L16">
+        <v>211</v>
+      </c>
+      <c r="M16">
+        <v>41</v>
+      </c>
+      <c r="N16" s="3">
+        <v>42378</v>
+      </c>
+      <c r="O16" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="1">
         <v>219</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="D17" s="3">
+        <v>43114</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="L17">
+        <v>212</v>
+      </c>
+      <c r="M17">
+        <v>9</v>
+      </c>
+      <c r="N17" s="3">
+        <v>43114</v>
+      </c>
+      <c r="O17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
         <v>220</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="D18" s="3">
+        <v>40379</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="L18">
+        <v>203</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18" s="3">
+        <v>40379</v>
+      </c>
+      <c r="O18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="1">
         <v>221</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="D19" s="3">
+        <v>41237</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="L19">
+        <v>246</v>
+      </c>
+      <c r="M19">
+        <v>44</v>
+      </c>
+      <c r="N19" s="3">
+        <v>41237</v>
+      </c>
+      <c r="O19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
         <v>222</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="D20" s="3">
+        <v>43084</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="L20">
+        <v>250</v>
+      </c>
+      <c r="M20">
+        <v>23</v>
+      </c>
+      <c r="N20" s="3">
+        <v>43084</v>
+      </c>
+      <c r="O20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="1">
         <v>223</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="D21" s="3">
+        <v>42179</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="L21">
+        <v>263</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21" s="3">
+        <v>42179</v>
+      </c>
+      <c r="O21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
         <v>224</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="D22" s="3">
+        <v>43164</v>
+      </c>
+      <c r="E22" s="1">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="L22">
+        <v>214</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22" s="3">
+        <v>43164</v>
+      </c>
+      <c r="O22" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="1">
         <v>225</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="D23" s="3">
+        <v>42720</v>
+      </c>
+      <c r="E23" s="1">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="L23">
+        <v>207</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
+        <v>42720</v>
+      </c>
+      <c r="O23" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1">
         <v>226</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="D24" s="3">
+        <v>43534</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="L24">
+        <v>298</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>43534</v>
+      </c>
+      <c r="O24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1">
         <v>227</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="D25" s="3">
+        <v>43033</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="L25">
+        <v>292</v>
+      </c>
+      <c r="M25">
+        <v>34</v>
+      </c>
+      <c r="N25" s="3">
+        <v>43033</v>
+      </c>
+      <c r="O25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="1">
         <v>228</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="D26" s="3">
+        <v>41441</v>
+      </c>
+      <c r="E26" s="1">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="L26">
+        <v>222</v>
+      </c>
+      <c r="M26">
+        <v>49</v>
+      </c>
+      <c r="N26" s="3">
+        <v>41441</v>
+      </c>
+      <c r="O26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1">
         <v>229</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="D27" s="3">
+        <v>42495</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="L27">
+        <v>281</v>
+      </c>
+      <c r="M27">
+        <v>37</v>
+      </c>
+      <c r="N27" s="3">
+        <v>42495</v>
+      </c>
+      <c r="O27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="1">
         <v>230</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="D28" s="3">
+        <v>43221</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="L28">
+        <v>280</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28" s="3">
+        <v>43221</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1">
         <v>231</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="D29" s="3">
+        <v>40619</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="L29">
+        <v>203</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29" s="3">
+        <v>40619</v>
+      </c>
+      <c r="O29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="1">
         <v>232</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="D30" s="3">
+        <v>40306</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="L30">
+        <v>287</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30" s="3">
+        <v>40306</v>
+      </c>
+      <c r="O30" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="1">
         <v>233</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="D31" s="3">
+        <v>41655</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="L31">
+        <v>287</v>
+      </c>
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="N31" s="3">
+        <v>41655</v>
+      </c>
+      <c r="O31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="1">
         <v>234</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="D32" s="3">
+        <v>40434</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="L32">
+        <v>292</v>
+      </c>
+      <c r="M32">
+        <v>16</v>
+      </c>
+      <c r="N32" s="3">
+        <v>40434</v>
+      </c>
+      <c r="O32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="1">
         <v>235</v>
       </c>
-      <c r="B32" s="1">
+      <c r="C33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="D33" s="3">
+        <v>42901</v>
+      </c>
+      <c r="E33" s="1">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="L33">
+        <v>231</v>
+      </c>
+      <c r="M33">
+        <v>45</v>
+      </c>
+      <c r="N33" s="3">
+        <v>42901</v>
+      </c>
+      <c r="O33" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="1">
         <v>236</v>
       </c>
-      <c r="B33" s="1">
+      <c r="C34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="D34" s="3">
+        <v>40549</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+      <c r="L34">
+        <v>229</v>
+      </c>
+      <c r="M34">
+        <v>47</v>
+      </c>
+      <c r="N34" s="3">
+        <v>40549</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="1">
         <v>237</v>
       </c>
-      <c r="B34" s="1">
+      <c r="C35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="D35" s="3">
+        <v>41302</v>
+      </c>
+      <c r="E35" s="1">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="L35">
+        <v>211</v>
+      </c>
+      <c r="M35">
+        <v>46</v>
+      </c>
+      <c r="N35" s="3">
+        <v>41302</v>
+      </c>
+      <c r="O35" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="1">
         <v>238</v>
       </c>
-      <c r="B35" s="1">
+      <c r="C36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="D36" s="3">
+        <v>41895</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="L36">
+        <v>222</v>
+      </c>
+      <c r="M36">
+        <v>43</v>
+      </c>
+      <c r="N36" s="3">
+        <v>41895</v>
+      </c>
+      <c r="O36" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="1">
         <v>239</v>
       </c>
-      <c r="B36" s="1">
+      <c r="C37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="D37" s="3">
+        <v>40486</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="L37">
+        <v>250</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37" s="3">
+        <v>40486</v>
+      </c>
+      <c r="O37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="1">
         <v>240</v>
       </c>
-      <c r="B37" s="1">
+      <c r="C38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="D38" s="3">
+        <v>43088</v>
+      </c>
+      <c r="E38" s="1">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="L38">
+        <v>239</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38" s="3">
+        <v>43088</v>
+      </c>
+      <c r="O38" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="1">
         <v>241</v>
       </c>
-      <c r="B38" s="1">
+      <c r="C39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="D39" s="3">
+        <v>41451</v>
+      </c>
+      <c r="E39" s="1">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="L39">
+        <v>214</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+      <c r="N39" s="3">
+        <v>41451</v>
+      </c>
+      <c r="O39" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="1">
         <v>242</v>
       </c>
-      <c r="B39" s="1">
+      <c r="C40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="D40" s="3">
+        <v>41197</v>
+      </c>
+      <c r="E40" s="1">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="L40">
+        <v>211</v>
+      </c>
+      <c r="M40">
+        <v>19</v>
+      </c>
+      <c r="N40" s="3">
+        <v>41197</v>
+      </c>
+      <c r="O40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="1">
         <v>243</v>
       </c>
-      <c r="B40" s="1">
+      <c r="C41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="D41" s="3">
+        <v>42252</v>
+      </c>
+      <c r="E41" s="1">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="L41">
+        <v>297</v>
+      </c>
+      <c r="M41">
+        <v>39</v>
+      </c>
+      <c r="N41" s="3">
+        <v>42252</v>
+      </c>
+      <c r="O41" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="1">
         <v>244</v>
       </c>
-      <c r="B41" s="1">
+      <c r="C42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="D42" s="3">
+        <v>41147</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="L42">
+        <v>274</v>
+      </c>
+      <c r="M42">
+        <v>50</v>
+      </c>
+      <c r="N42" s="3">
+        <v>41147</v>
+      </c>
+      <c r="O42" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="1">
         <v>245</v>
       </c>
-      <c r="B42" s="1">
+      <c r="C43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="D43" s="3">
+        <v>41064</v>
+      </c>
+      <c r="E43" s="1">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="L43">
+        <v>297</v>
+      </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43" s="3">
+        <v>41064</v>
+      </c>
+      <c r="O43" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="1">
         <v>246</v>
       </c>
-      <c r="B43" s="1">
+      <c r="C44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="D44" s="3">
+        <v>41071</v>
+      </c>
+      <c r="E44" s="1">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="L44">
+        <v>280</v>
+      </c>
+      <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="N44" s="3">
+        <v>41071</v>
+      </c>
+      <c r="O44" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1">
         <v>247</v>
       </c>
-      <c r="B44" s="1">
+      <c r="C45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="D45" s="3">
+        <v>43243</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="L45">
+        <v>226</v>
+      </c>
+      <c r="M45">
+        <v>27</v>
+      </c>
+      <c r="N45" s="3">
+        <v>43243</v>
+      </c>
+      <c r="O45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="1">
         <v>248</v>
       </c>
-      <c r="B45" s="1">
+      <c r="C46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="D46" s="3">
+        <v>41510</v>
+      </c>
+      <c r="E46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="L46">
+        <v>261</v>
+      </c>
+      <c r="M46">
+        <v>22</v>
+      </c>
+      <c r="N46" s="3">
+        <v>41510</v>
+      </c>
+      <c r="O46" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="1">
         <v>249</v>
       </c>
-      <c r="B46" s="1">
+      <c r="C47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="D47" s="3">
+        <v>40673</v>
+      </c>
+      <c r="E47" s="1">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="L47">
+        <v>212</v>
+      </c>
+      <c r="M47">
+        <v>24</v>
+      </c>
+      <c r="N47" s="3">
+        <v>40673</v>
+      </c>
+      <c r="O47" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="1">
         <v>250</v>
       </c>
-      <c r="B47" s="1">
+      <c r="C48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="D48" s="3">
+        <v>41308</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+      <c r="L48">
+        <v>229</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48" s="3">
+        <v>41308</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="1">
         <v>251</v>
       </c>
-      <c r="B48" s="1">
+      <c r="C49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="D49" s="3">
+        <v>42910</v>
+      </c>
+      <c r="E49" s="1">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="L49">
+        <v>246</v>
+      </c>
+      <c r="M49">
+        <v>33</v>
+      </c>
+      <c r="N49" s="3">
+        <v>42910</v>
+      </c>
+      <c r="O49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="1">
         <v>252</v>
       </c>
-      <c r="B49" s="1">
+      <c r="C50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="D50" s="3">
+        <v>40434</v>
+      </c>
+      <c r="E50" s="1">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+      <c r="L50">
+        <v>286</v>
+      </c>
+      <c r="M50">
+        <v>31</v>
+      </c>
+      <c r="N50" s="3">
+        <v>40434</v>
+      </c>
+      <c r="O50" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="1">
         <v>253</v>
       </c>
-      <c r="B50" s="1">
+      <c r="C51" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="D51" s="3">
+        <v>42988</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="L51">
+        <v>252</v>
+      </c>
+      <c r="M51">
+        <v>33</v>
+      </c>
+      <c r="N51" s="3">
+        <v>42988</v>
+      </c>
+      <c r="O51" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="D52" s="3">
+        <v>42630</v>
+      </c>
+      <c r="E52" s="1">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="L52">
+        <v>239</v>
+      </c>
+      <c r="M52">
+        <v>9</v>
+      </c>
+      <c r="N52" s="3">
+        <v>42630</v>
+      </c>
+      <c r="O52" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="D53" s="3">
+        <v>41382</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="L53">
+        <v>266</v>
+      </c>
+      <c r="M53">
+        <v>37</v>
+      </c>
+      <c r="N53" s="3">
+        <v>41382</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="D54" s="3">
+        <v>40417</v>
+      </c>
+      <c r="E54" s="1">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="L54">
+        <v>239</v>
+      </c>
+      <c r="M54">
+        <v>37</v>
+      </c>
+      <c r="N54" s="3">
+        <v>40417</v>
+      </c>
+      <c r="O54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="1">
         <v>257</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="D55" s="3">
+        <v>42922</v>
+      </c>
+      <c r="E55" s="1">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>148</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="L55">
+        <v>276</v>
+      </c>
+      <c r="M55">
+        <v>8</v>
+      </c>
+      <c r="N55" s="3">
+        <v>42922</v>
+      </c>
+      <c r="O55" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="1">
         <v>258</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="D56" s="3">
+        <v>41465</v>
+      </c>
+      <c r="E56" s="1">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="L56">
+        <v>226</v>
+      </c>
+      <c r="M56">
+        <v>44</v>
+      </c>
+      <c r="N56" s="3">
+        <v>41465</v>
+      </c>
+      <c r="O56" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="1">
         <v>259</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="D57" s="3">
+        <v>43822</v>
+      </c>
+      <c r="E57" s="1">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="L57">
+        <v>277</v>
+      </c>
+      <c r="M57">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
+        <v>43822</v>
+      </c>
+      <c r="O57" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="1">
         <v>260</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="D58" s="3">
+        <v>43776</v>
+      </c>
+      <c r="E58" s="1">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+      <c r="L58">
+        <v>268</v>
+      </c>
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58" s="3">
+        <v>43776</v>
+      </c>
+      <c r="O58" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="1">
         <v>261</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="D59" s="3">
+        <v>40744</v>
+      </c>
+      <c r="E59" s="1">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="L59">
+        <v>282</v>
+      </c>
+      <c r="M59">
+        <v>16</v>
+      </c>
+      <c r="N59" s="3">
+        <v>40744</v>
+      </c>
+      <c r="O59" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="1">
         <v>262</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="D60" s="3">
+        <v>40579</v>
+      </c>
+      <c r="E60" s="1">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="L60">
+        <v>275</v>
+      </c>
+      <c r="M60">
+        <v>14</v>
+      </c>
+      <c r="N60" s="3">
+        <v>40579</v>
+      </c>
+      <c r="O60" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1">
         <v>263</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="D61" s="3">
+        <v>42477</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="L61">
+        <v>203</v>
+      </c>
+      <c r="M61">
+        <v>41</v>
+      </c>
+      <c r="N61" s="3">
+        <v>42477</v>
+      </c>
+      <c r="O61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="1">
         <v>264</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="D62" s="3">
+        <v>43137</v>
+      </c>
+      <c r="E62" s="1">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="L62">
+        <v>250</v>
+      </c>
+      <c r="M62">
+        <v>31</v>
+      </c>
+      <c r="N62" s="3">
+        <v>43137</v>
+      </c>
+      <c r="O62" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="1">
         <v>265</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="D63" s="3">
+        <v>40912</v>
+      </c>
+      <c r="E63" s="1">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="L63">
+        <v>247</v>
+      </c>
+      <c r="M63">
+        <v>18</v>
+      </c>
+      <c r="N63" s="3">
+        <v>40912</v>
+      </c>
+      <c r="O63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1">
         <v>266</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="D64" s="3">
+        <v>43441</v>
+      </c>
+      <c r="E64" s="1">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="L64">
+        <v>247</v>
+      </c>
+      <c r="M64">
+        <v>18</v>
+      </c>
+      <c r="N64" s="3">
+        <v>43441</v>
+      </c>
+      <c r="O64" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="1">
         <v>267</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="D65" s="3">
+        <v>43508</v>
+      </c>
+      <c r="E65" s="1">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>152</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="L65">
+        <v>203</v>
+      </c>
+      <c r="M65">
+        <v>14</v>
+      </c>
+      <c r="N65" s="3">
+        <v>43508</v>
+      </c>
+      <c r="O65" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="1">
         <v>268</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="D66" s="3">
+        <v>40492</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="L66">
+        <v>285</v>
+      </c>
+      <c r="M66">
+        <v>17</v>
+      </c>
+      <c r="N66" s="3">
+        <v>40492</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="1">
         <v>269</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="D67" s="3">
+        <v>41356</v>
+      </c>
+      <c r="E67" s="1">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>153</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J101" si="1">VLOOKUP(H67,A:B,2,0)</f>
+        <v>278</v>
+      </c>
+      <c r="L67">
+        <v>278</v>
+      </c>
+      <c r="M67">
+        <v>14</v>
+      </c>
+      <c r="N67" s="3">
+        <v>41356</v>
+      </c>
+      <c r="O67" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="D68" s="3">
+        <v>43734</v>
+      </c>
+      <c r="E68" s="1">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="L68">
+        <v>255</v>
+      </c>
+      <c r="M68">
+        <v>33</v>
+      </c>
+      <c r="N68" s="3">
+        <v>43734</v>
+      </c>
+      <c r="O68" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="1">
         <v>271</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="D69" s="3">
+        <v>41510</v>
+      </c>
+      <c r="E69" s="1">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
+        <v>154</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="L69">
+        <v>211</v>
+      </c>
+      <c r="M69">
+        <v>29</v>
+      </c>
+      <c r="N69" s="3">
+        <v>41510</v>
+      </c>
+      <c r="O69" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="1">
         <v>272</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="D70" s="3">
+        <v>42295</v>
+      </c>
+      <c r="E70" s="1">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="L70">
+        <v>245</v>
+      </c>
+      <c r="M70">
+        <v>37</v>
+      </c>
+      <c r="N70" s="3">
+        <v>42295</v>
+      </c>
+      <c r="O70" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1">
         <v>273</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="D71" s="3">
+        <v>41271</v>
+      </c>
+      <c r="E71" s="1">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>156</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="L71">
+        <v>298</v>
+      </c>
+      <c r="M71">
+        <v>34</v>
+      </c>
+      <c r="N71" s="3">
+        <v>41271</v>
+      </c>
+      <c r="O71" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="1">
         <v>274</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="D72" s="3">
+        <v>43686</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="L72">
+        <v>266</v>
+      </c>
+      <c r="M72">
+        <v>20</v>
+      </c>
+      <c r="N72" s="3">
+        <v>43686</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1">
         <v>275</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="D73" s="3">
+        <v>40260</v>
+      </c>
+      <c r="E73" s="1">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="L73">
+        <v>220</v>
+      </c>
+      <c r="M73">
+        <v>8</v>
+      </c>
+      <c r="N73" s="3">
+        <v>40260</v>
+      </c>
+      <c r="O73" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1">
         <v>276</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="D74" s="3">
+        <v>40533</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="L74">
+        <v>214</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74" s="3">
+        <v>40533</v>
+      </c>
+      <c r="O74" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="1">
         <v>277</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="D75" s="3">
+        <v>40230</v>
+      </c>
+      <c r="E75" s="1">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="L75">
+        <v>214</v>
+      </c>
+      <c r="M75">
+        <v>12</v>
+      </c>
+      <c r="N75" s="3">
+        <v>40230</v>
+      </c>
+      <c r="O75" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
         <v>278</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="D76" s="3">
+        <v>41722</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="L76">
+        <v>255</v>
+      </c>
+      <c r="M76">
+        <v>32</v>
+      </c>
+      <c r="N76" s="3">
+        <v>41722</v>
+      </c>
+      <c r="O76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="1">
         <v>279</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="D77" s="3">
+        <v>43208</v>
+      </c>
+      <c r="E77" s="1">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>157</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="L77">
+        <v>227</v>
+      </c>
+      <c r="M77">
+        <v>8</v>
+      </c>
+      <c r="N77" s="3">
+        <v>43208</v>
+      </c>
+      <c r="O77" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="D78" s="3">
+        <v>40859</v>
+      </c>
+      <c r="E78" s="1">
+        <v>6</v>
+      </c>
+      <c r="G78" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L78">
+        <v>250</v>
+      </c>
+      <c r="M78">
+        <v>17</v>
+      </c>
+      <c r="N78" s="3">
+        <v>40859</v>
+      </c>
+      <c r="O78" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="1">
         <v>281</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="D79" s="3">
+        <v>43086</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="L79">
+        <v>293</v>
+      </c>
+      <c r="M79">
+        <v>9</v>
+      </c>
+      <c r="N79" s="3">
+        <v>43086</v>
+      </c>
+      <c r="O79" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="1">
         <v>282</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="D80" s="3">
+        <v>43275</v>
+      </c>
+      <c r="E80" s="1">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="L80">
+        <v>212</v>
+      </c>
+      <c r="M80">
+        <v>49</v>
+      </c>
+      <c r="N80" s="3">
+        <v>43275</v>
+      </c>
+      <c r="O80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="1">
         <v>283</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="D81" s="3">
+        <v>41830</v>
+      </c>
+      <c r="E81" s="1">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>158</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="L81">
+        <v>287</v>
+      </c>
+      <c r="M81">
+        <v>43</v>
+      </c>
+      <c r="N81" s="3">
+        <v>41830</v>
+      </c>
+      <c r="O81" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="1">
         <v>284</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="D82" s="3">
+        <v>43529</v>
+      </c>
+      <c r="E82" s="1">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
+        <v>159</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="L82">
+        <v>270</v>
+      </c>
+      <c r="M82">
+        <v>21</v>
+      </c>
+      <c r="N82" s="3">
+        <v>43529</v>
+      </c>
+      <c r="O82" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="D83" s="3">
+        <v>42936</v>
+      </c>
+      <c r="E83" s="1">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="L83">
+        <v>207</v>
+      </c>
+      <c r="M83">
+        <v>41</v>
+      </c>
+      <c r="N83" s="3">
+        <v>42936</v>
+      </c>
+      <c r="O83" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="1">
         <v>286</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="D84" s="3">
+        <v>43473</v>
+      </c>
+      <c r="E84" s="1">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="L84">
+        <v>263</v>
+      </c>
+      <c r="M84">
+        <v>26</v>
+      </c>
+      <c r="N84" s="3">
+        <v>43473</v>
+      </c>
+      <c r="O84" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="1">
         <v>287</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="D85" s="3">
+        <v>42860</v>
+      </c>
+      <c r="E85" s="1">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>50</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="L85">
+        <v>227</v>
+      </c>
+      <c r="M85">
+        <v>29</v>
+      </c>
+      <c r="N85" s="3">
+        <v>42860</v>
+      </c>
+      <c r="O85" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" s="1">
         <v>288</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="D86" s="3">
+        <v>41286</v>
+      </c>
+      <c r="E86" s="1">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>160</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="L86">
+        <v>259</v>
+      </c>
+      <c r="M86">
+        <v>12</v>
+      </c>
+      <c r="N86" s="3">
+        <v>41286</v>
+      </c>
+      <c r="O86" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="1">
         <v>289</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="D87" s="3">
+        <v>41194</v>
+      </c>
+      <c r="E87" s="1">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>161</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="L87">
+        <v>298</v>
+      </c>
+      <c r="M87">
+        <v>31</v>
+      </c>
+      <c r="N87" s="3">
+        <v>41194</v>
+      </c>
+      <c r="O87" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="D88" s="3">
+        <v>41741</v>
+      </c>
+      <c r="E88" s="1">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>162</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="L88">
+        <v>264</v>
+      </c>
+      <c r="M88">
+        <v>48</v>
+      </c>
+      <c r="N88" s="3">
+        <v>41741</v>
+      </c>
+      <c r="O88" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="1">
         <v>291</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="D89" s="3">
+        <v>43354</v>
+      </c>
+      <c r="E89" s="1">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>163</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="L89">
+        <v>203</v>
+      </c>
+      <c r="M89">
+        <v>26</v>
+      </c>
+      <c r="N89" s="3">
+        <v>43354</v>
+      </c>
+      <c r="O89" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="1">
         <v>292</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="D90" s="3">
+        <v>43118</v>
+      </c>
+      <c r="E90" s="1">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="L90">
+        <v>222</v>
+      </c>
+      <c r="M90">
+        <v>35</v>
+      </c>
+      <c r="N90" s="3">
+        <v>43118</v>
+      </c>
+      <c r="O90" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="1">
         <v>293</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="D91" s="3">
+        <v>42070</v>
+      </c>
+      <c r="E91" s="1">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>82</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="L91">
+        <v>227</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
+        <v>42070</v>
+      </c>
+      <c r="O91" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="1">
         <v>294</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="D92" s="3">
+        <v>41190</v>
+      </c>
+      <c r="E92" s="1">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>164</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="L92">
+        <v>230</v>
+      </c>
+      <c r="M92">
+        <v>47</v>
+      </c>
+      <c r="N92" s="3">
+        <v>41190</v>
+      </c>
+      <c r="O92" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="1">
         <v>295</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="D93" s="3">
+        <v>41647</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>165</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="L93">
+        <v>286</v>
+      </c>
+      <c r="M93">
+        <v>47</v>
+      </c>
+      <c r="N93" s="3">
+        <v>41647</v>
+      </c>
+      <c r="O93" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="1">
         <v>296</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="D94" s="3">
+        <v>40843</v>
+      </c>
+      <c r="E94" s="1">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>166</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="L94">
+        <v>239</v>
+      </c>
+      <c r="M94">
+        <v>50</v>
+      </c>
+      <c r="N94" s="3">
+        <v>40843</v>
+      </c>
+      <c r="O94" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="1">
         <v>297</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="D95" s="3">
+        <v>41139</v>
+      </c>
+      <c r="E95" s="1">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="L95">
+        <v>224</v>
+      </c>
+      <c r="M95">
+        <v>9</v>
+      </c>
+      <c r="N95" s="3">
+        <v>41139</v>
+      </c>
+      <c r="O95" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="D96" s="3">
+        <v>40848</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
+      <c r="L96">
+        <v>303</v>
+      </c>
+      <c r="M96">
+        <v>17</v>
+      </c>
+      <c r="N96" s="3">
+        <v>40848</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" s="1">
         <v>299</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="D97" s="3">
+        <v>40893</v>
+      </c>
+      <c r="E97" s="1">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>167</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="L97">
+        <v>263</v>
+      </c>
+      <c r="M97">
+        <v>26</v>
+      </c>
+      <c r="N97" s="3">
+        <v>40893</v>
+      </c>
+      <c r="O97" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="D98" s="3">
+        <v>41382</v>
+      </c>
+      <c r="E98" s="1">
+        <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>168</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="L98">
+        <v>226</v>
+      </c>
+      <c r="M98">
+        <v>43</v>
+      </c>
+      <c r="N98" s="3">
+        <v>41382</v>
+      </c>
+      <c r="O98" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="1">
         <v>301</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="D99" s="3">
+        <v>40338</v>
+      </c>
+      <c r="E99" s="1">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
+        <v>169</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="L99">
+        <v>276</v>
+      </c>
+      <c r="M99">
+        <v>48</v>
+      </c>
+      <c r="N99" s="3">
+        <v>40338</v>
+      </c>
+      <c r="O99" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="1">
         <v>302</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="D100" s="3">
+        <v>42047</v>
+      </c>
+      <c r="E100" s="1">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>170</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="L100">
+        <v>255</v>
+      </c>
+      <c r="M100">
+        <v>39</v>
+      </c>
+      <c r="N100" s="3">
+        <v>42047</v>
+      </c>
+      <c r="O100" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="1">
         <v>303</v>
+      </c>
+      <c r="D101" s="3">
+        <v>41122</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>92</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="L101">
+        <v>226</v>
+      </c>
+      <c r="M101">
+        <v>49</v>
+      </c>
+      <c r="N101" s="3">
+        <v>41122</v>
+      </c>
+      <c r="O101" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2835,6 +6153,2658 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB4AE4E-3AB9-4846-AA31-742F9C7C9FFE}">
+  <dimension ref="B1:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>207</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3">
+        <v>41815</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>275</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40547</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>276</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>42188</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>211</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43622</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>218</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>41726</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>218</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43509</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>274</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3">
+        <v>41025</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>245</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43487</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>259</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43078</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>222</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3">
+        <v>41351</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>220</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42680</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>207</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43334</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>262</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3">
+        <v>41127</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>274</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3">
+        <v>40601</v>
+      </c>
+      <c r="E15" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>211</v>
+      </c>
+      <c r="C16">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3">
+        <v>42378</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>212</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43114</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>203</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>40379</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>246</v>
+      </c>
+      <c r="C19">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3">
+        <v>41237</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>250</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3">
+        <v>43084</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>263</v>
+      </c>
+      <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3">
+        <v>42179</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>214</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
+        <v>43164</v>
+      </c>
+      <c r="E22" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>207</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>42720</v>
+      </c>
+      <c r="E23" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>298</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>43534</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>292</v>
+      </c>
+      <c r="C25">
+        <v>34</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43033</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>222</v>
+      </c>
+      <c r="C26">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3">
+        <v>41441</v>
+      </c>
+      <c r="E26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>281</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3">
+        <v>42495</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>280</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3">
+        <v>43221</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>203</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3">
+        <v>40619</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>287</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>40306</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>287</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3">
+        <v>41655</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>292</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3">
+        <v>40434</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>231</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33" s="3">
+        <v>42901</v>
+      </c>
+      <c r="E33" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>229</v>
+      </c>
+      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="D34" s="3">
+        <v>40549</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>211</v>
+      </c>
+      <c r="C35">
+        <v>46</v>
+      </c>
+      <c r="D35" s="3">
+        <v>41302</v>
+      </c>
+      <c r="E35" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>222</v>
+      </c>
+      <c r="C36">
+        <v>43</v>
+      </c>
+      <c r="D36" s="3">
+        <v>41895</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>250</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>40486</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>239</v>
+      </c>
+      <c r="C38">
+        <v>26</v>
+      </c>
+      <c r="D38" s="3">
+        <v>43088</v>
+      </c>
+      <c r="E38" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>214</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39" s="3">
+        <v>41451</v>
+      </c>
+      <c r="E39" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>211</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3">
+        <v>41197</v>
+      </c>
+      <c r="E40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>297</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41" s="3">
+        <v>42252</v>
+      </c>
+      <c r="E41" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>274</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42" s="3">
+        <v>41147</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>297</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3">
+        <v>41064</v>
+      </c>
+      <c r="E43" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>280</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3">
+        <v>41071</v>
+      </c>
+      <c r="E44" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>226</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+      <c r="D45" s="3">
+        <v>43243</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>261</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46" s="3">
+        <v>41510</v>
+      </c>
+      <c r="E46" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>212</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3">
+        <v>40673</v>
+      </c>
+      <c r="E47" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>229</v>
+      </c>
+      <c r="C48">
+        <v>18</v>
+      </c>
+      <c r="D48" s="3">
+        <v>41308</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>246</v>
+      </c>
+      <c r="C49">
+        <v>33</v>
+      </c>
+      <c r="D49" s="3">
+        <v>42910</v>
+      </c>
+      <c r="E49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>286</v>
+      </c>
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50" s="3">
+        <v>40434</v>
+      </c>
+      <c r="E50" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>252</v>
+      </c>
+      <c r="C51">
+        <v>33</v>
+      </c>
+      <c r="D51" s="3">
+        <v>42988</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>239</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52" s="3">
+        <v>42630</v>
+      </c>
+      <c r="E52" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>266</v>
+      </c>
+      <c r="C53">
+        <v>37</v>
+      </c>
+      <c r="D53" s="3">
+        <v>41382</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>239</v>
+      </c>
+      <c r="C54">
+        <v>37</v>
+      </c>
+      <c r="D54" s="3">
+        <v>40417</v>
+      </c>
+      <c r="E54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>276</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3">
+        <v>42922</v>
+      </c>
+      <c r="E55" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>226</v>
+      </c>
+      <c r="C56">
+        <v>44</v>
+      </c>
+      <c r="D56" s="3">
+        <v>41465</v>
+      </c>
+      <c r="E56" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>277</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3">
+        <v>43822</v>
+      </c>
+      <c r="E57" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>268</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+      <c r="D58" s="3">
+        <v>43776</v>
+      </c>
+      <c r="E58" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>282</v>
+      </c>
+      <c r="C59">
+        <v>16</v>
+      </c>
+      <c r="D59" s="3">
+        <v>40744</v>
+      </c>
+      <c r="E59" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>275</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3">
+        <v>40579</v>
+      </c>
+      <c r="E60" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>203</v>
+      </c>
+      <c r="C61">
+        <v>41</v>
+      </c>
+      <c r="D61" s="3">
+        <v>42477</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>250</v>
+      </c>
+      <c r="C62">
+        <v>31</v>
+      </c>
+      <c r="D62" s="3">
+        <v>43137</v>
+      </c>
+      <c r="E62" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>247</v>
+      </c>
+      <c r="C63">
+        <v>18</v>
+      </c>
+      <c r="D63" s="3">
+        <v>40912</v>
+      </c>
+      <c r="E63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>247</v>
+      </c>
+      <c r="C64">
+        <v>18</v>
+      </c>
+      <c r="D64" s="3">
+        <v>43441</v>
+      </c>
+      <c r="E64" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>203</v>
+      </c>
+      <c r="C65">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3">
+        <v>43508</v>
+      </c>
+      <c r="E65" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>285</v>
+      </c>
+      <c r="C66">
+        <v>17</v>
+      </c>
+      <c r="D66" s="3">
+        <v>40492</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>278</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3">
+        <v>41356</v>
+      </c>
+      <c r="E67" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>255</v>
+      </c>
+      <c r="C68">
+        <v>33</v>
+      </c>
+      <c r="D68" s="3">
+        <v>43734</v>
+      </c>
+      <c r="E68" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>211</v>
+      </c>
+      <c r="C69">
+        <v>29</v>
+      </c>
+      <c r="D69" s="3">
+        <v>41510</v>
+      </c>
+      <c r="E69" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>245</v>
+      </c>
+      <c r="C70">
+        <v>37</v>
+      </c>
+      <c r="D70" s="3">
+        <v>42295</v>
+      </c>
+      <c r="E70" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>298</v>
+      </c>
+      <c r="C71">
+        <v>34</v>
+      </c>
+      <c r="D71" s="3">
+        <v>41271</v>
+      </c>
+      <c r="E71" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>266</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72" s="3">
+        <v>43686</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>220</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" s="3">
+        <v>40260</v>
+      </c>
+      <c r="E73" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>214</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3">
+        <v>40533</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>214</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75" s="3">
+        <v>40230</v>
+      </c>
+      <c r="E75" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>255</v>
+      </c>
+      <c r="C76">
+        <v>32</v>
+      </c>
+      <c r="D76" s="3">
+        <v>41722</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>227</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77" s="3">
+        <v>43208</v>
+      </c>
+      <c r="E77" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>250</v>
+      </c>
+      <c r="C78">
+        <v>17</v>
+      </c>
+      <c r="D78" s="3">
+        <v>40859</v>
+      </c>
+      <c r="E78" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>293</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+      <c r="D79" s="3">
+        <v>43086</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>212</v>
+      </c>
+      <c r="C80">
+        <v>49</v>
+      </c>
+      <c r="D80" s="3">
+        <v>43275</v>
+      </c>
+      <c r="E80" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>287</v>
+      </c>
+      <c r="C81">
+        <v>43</v>
+      </c>
+      <c r="D81" s="3">
+        <v>41830</v>
+      </c>
+      <c r="E81" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>270</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82" s="3">
+        <v>43529</v>
+      </c>
+      <c r="E82" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>207</v>
+      </c>
+      <c r="C83">
+        <v>41</v>
+      </c>
+      <c r="D83" s="3">
+        <v>42936</v>
+      </c>
+      <c r="E83" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>263</v>
+      </c>
+      <c r="C84">
+        <v>26</v>
+      </c>
+      <c r="D84" s="3">
+        <v>43473</v>
+      </c>
+      <c r="E84" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>227</v>
+      </c>
+      <c r="C85">
+        <v>29</v>
+      </c>
+      <c r="D85" s="3">
+        <v>42860</v>
+      </c>
+      <c r="E85" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>259</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86" s="3">
+        <v>41286</v>
+      </c>
+      <c r="E86" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>298</v>
+      </c>
+      <c r="C87">
+        <v>31</v>
+      </c>
+      <c r="D87" s="3">
+        <v>41194</v>
+      </c>
+      <c r="E87" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>264</v>
+      </c>
+      <c r="C88">
+        <v>48</v>
+      </c>
+      <c r="D88" s="3">
+        <v>41741</v>
+      </c>
+      <c r="E88" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>203</v>
+      </c>
+      <c r="C89">
+        <v>26</v>
+      </c>
+      <c r="D89" s="3">
+        <v>43354</v>
+      </c>
+      <c r="E89" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>222</v>
+      </c>
+      <c r="C90">
+        <v>35</v>
+      </c>
+      <c r="D90" s="3">
+        <v>43118</v>
+      </c>
+      <c r="E90" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>227</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" s="3">
+        <v>42070</v>
+      </c>
+      <c r="E91" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>230</v>
+      </c>
+      <c r="C92">
+        <v>47</v>
+      </c>
+      <c r="D92" s="3">
+        <v>41190</v>
+      </c>
+      <c r="E92" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>286</v>
+      </c>
+      <c r="C93">
+        <v>47</v>
+      </c>
+      <c r="D93" s="3">
+        <v>41647</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>239</v>
+      </c>
+      <c r="C94">
+        <v>50</v>
+      </c>
+      <c r="D94" s="3">
+        <v>40843</v>
+      </c>
+      <c r="E94" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>224</v>
+      </c>
+      <c r="C95">
+        <v>9</v>
+      </c>
+      <c r="D95" s="3">
+        <v>41139</v>
+      </c>
+      <c r="E95" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>303</v>
+      </c>
+      <c r="C96">
+        <v>17</v>
+      </c>
+      <c r="D96" s="3">
+        <v>40848</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>263</v>
+      </c>
+      <c r="C97">
+        <v>26</v>
+      </c>
+      <c r="D97" s="3">
+        <v>40893</v>
+      </c>
+      <c r="E97" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>226</v>
+      </c>
+      <c r="C98">
+        <v>43</v>
+      </c>
+      <c r="D98" s="3">
+        <v>41382</v>
+      </c>
+      <c r="E98" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>276</v>
+      </c>
+      <c r="C99">
+        <v>48</v>
+      </c>
+      <c r="D99" s="3">
+        <v>40338</v>
+      </c>
+      <c r="E99" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>255</v>
+      </c>
+      <c r="C100">
+        <v>39</v>
+      </c>
+      <c r="D100" s="3">
+        <v>42047</v>
+      </c>
+      <c r="E100" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>226</v>
+      </c>
+      <c r="C101">
+        <v>49</v>
+      </c>
+      <c r="D101" s="3">
+        <v>41122</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03299A87-358A-4E0B-86D7-E2EE6705A42A}">
+  <dimension ref="A1:D100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <f>VLOOKUP(C1,A:B,2,0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="0">VLOOKUP(C2,A:B,2,0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D100" si="1">VLOOKUP(C66,A:B,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D11D99-D4E9-46EF-A6C6-B885E3A6CB3B}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -3878,12 +9848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31DE84F-D12B-414D-BF78-FA94C83BFDD7}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G50"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4322,12 +10292,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3BD462-A16E-4F2D-86D5-7B7ED48F84F2}">
   <dimension ref="B1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
